--- a/tmp.xlsx
+++ b/tmp.xlsx
@@ -463,16 +463,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.56</v>
+        <v>6.69</v>
       </c>
       <c r="C2" t="n">
-        <v>7.3</v>
+        <v>7.43</v>
       </c>
       <c r="D2" t="n">
-        <v>8.07</v>
+        <v>7.99</v>
       </c>
       <c r="E2" t="n">
-        <v>8.130000000000001</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="C3" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="D3" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="E3" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="4">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="C4" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="E4" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -520,13 +520,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="C5" t="n">
         <v>0.22</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="E5" t="n">
         <v>0.13</v>
@@ -539,16 +539,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="C6" t="n">
         <v>0.57</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="7">
@@ -558,16 +558,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="C7" t="n">
         <v>1.36</v>
       </c>
       <c r="D7" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="E7" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="8">
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="C8" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="E8" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9">
@@ -596,13 +596,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="C9" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="E9" t="n">
         <v>0.21</v>
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="C10" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E10" t="n">
         <v>0.08</v>
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="D11" t="n">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="12">
@@ -656,13 +656,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="D12" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="E12" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
@@ -678,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="E13" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="14">
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="15">
@@ -716,10 +716,10 @@
         <v>0.03</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="16">
@@ -732,13 +732,13 @@
         <v>0.06</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D16" t="n">
         <v>0.08</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="17">
@@ -751,13 +751,13 @@
         <v>0.22</v>
       </c>
       <c r="C17" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="D17" t="n">
         <v>0.32</v>
       </c>
       <c r="E17" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>

--- a/tmp.xlsx
+++ b/tmp.xlsx
@@ -1,38 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProjects\MuhinLabs2024\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21795" windowHeight="11085"/>
   </bookViews>
   <sheets>
-    <sheet name="list 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Work" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="list 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Work" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Абсолютная пропускная способность системы</t>
+  </si>
+  <si>
+    <t>Вероятность обслуживания</t>
+  </si>
+  <si>
+    <t>Вероятность отказа</t>
+  </si>
+  <si>
+    <t>Вероятность занятости одного канала</t>
+  </si>
+  <si>
+    <t>Вероятность занятости двух каналов</t>
+  </si>
+  <si>
+    <t>Среднее количество занятых каналов</t>
+  </si>
+  <si>
+    <t>Вероятность простоя хотя бы одного канала</t>
+  </si>
+  <si>
+    <t>Вероятность простоя двух каналов одновременно</t>
+  </si>
+  <si>
+    <t>Вероятность простоя всей системы</t>
+  </si>
+  <si>
+    <t>Среднее количество заявок в очереди</t>
+  </si>
+  <si>
+    <t>Вероятность того, что в очереди будет одна заявка</t>
+  </si>
+  <si>
+    <t>Вероятность того, в очереди будет стоять одновременно две заявки</t>
+  </si>
+  <si>
+    <t>Вероятность того, в очереди будет стоять одновременно три заявки</t>
+  </si>
+  <si>
+    <t>Среднее время ожидания заявки в очереди</t>
+  </si>
+  <si>
+    <t>Среднее время обслуживания заявки</t>
+  </si>
+  <si>
+    <t>Среднее время нахождения заявки в системе</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,93 +117,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,342 +441,301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Абсолютная пропускная способность системы</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>6.69</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>7.43</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>7.99</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>8.57</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Вероятность обслуживания</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>0.66</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.75</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.79</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.87</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Вероятность отказа</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>0.34</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.25</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.21</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Вероятность занятости одного канала</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>0.26</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.22</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E5">
         <v>0.13</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Вероятность занятости двух каналов</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>0.41</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="C6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D6">
+        <v>0.69</v>
+      </c>
+      <c r="E6">
         <v>0.72</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Среднее количество занятых каналов</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>1.08</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1.36</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1.52</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1.57</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Вероятность простоя хотя бы одного канала</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
         <v>0.31</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.22</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.17</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.15</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Вероятность простоя двух каналов одновременно</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>0.45</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.33</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.24</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.21</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Вероятность простоя всей системы</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <v>0.17</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.12</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.1</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.08</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Среднее количество заявок в очереди</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>0.26</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.81</v>
+      </c>
+      <c r="E11">
         <v>1.28</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Вероятность того, что в очереди будет одна заявка</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>0.26</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.38</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>0.4</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Вероятность того, в очереди будет стоять одновременно две заявки</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>0.21</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>0.23</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Вероятность того, в очереди будет стоять одновременно три заявки</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Среднее время ожидания заявки в очереди</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0.03</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.03</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>0.03</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Среднее время обслуживания заявки</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
         <v>0.06</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D16">
         <v>0.08</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>0.08</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Среднее время нахождения заявки в системе</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
         <v>0.22</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.27</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.32</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>0.37</v>
       </c>
     </row>
@@ -766,18 +745,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
